--- a/data/input/employee_absence_data_40.xlsx
+++ b/data/input/employee_absence_data_40.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94680</v>
+        <v>64331</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr. Antônio Silveira</t>
+          <t>Agatha Montenegro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,114 +482,114 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45086</v>
+        <v>45103</v>
       </c>
       <c r="G2" t="n">
-        <v>7070.91</v>
+        <v>6158.58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20509</v>
+        <v>75313</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vinícius Farias</t>
+          <t>Liz Rios</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45105</v>
+        <v>45081</v>
       </c>
       <c r="G3" t="n">
-        <v>5151.86</v>
+        <v>4870.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67375</v>
+        <v>57518</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Olívia Albuquerque</t>
+          <t>Eduarda Aparecida</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45095</v>
+        <v>45099</v>
       </c>
       <c r="G4" t="n">
-        <v>7802.71</v>
+        <v>8643.360000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28673</v>
+        <v>76551</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lorena Farias</t>
+          <t>Sr. Léo Barros</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45084</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>7751.26</v>
+        <v>5341.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29141</v>
+        <v>87866</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>José Miguel Macedo</t>
+          <t>Otto Farias</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,85 +598,85 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45092</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>3279.54</v>
+        <v>8712.200000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50936</v>
+        <v>5248</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Heloisa Fernandes</t>
+          <t>Aylla Fernandes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45088</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>5379.39</v>
+        <v>2618.59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>27254</v>
+        <v>38176</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nina Guerra</t>
+          <t>Maria Cecília Abreu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45099</v>
+        <v>45094</v>
       </c>
       <c r="G8" t="n">
-        <v>2947.7</v>
+        <v>9665.309999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1133</v>
+        <v>90512</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Arthur Gabriel Peixoto</t>
+          <t>Maria Vitória Pires</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -685,71 +685,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45094</v>
+        <v>45082</v>
       </c>
       <c r="G9" t="n">
-        <v>7124.74</v>
+        <v>5593.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9015</v>
+        <v>34694</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luiz Henrique Moreira</t>
+          <t>Murilo Souza</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45102</v>
+        <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>11052.92</v>
+        <v>6271.71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>61310</v>
+        <v>87907</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rebeca Ramos</t>
+          <t>Luara Correia</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45080</v>
+        <v>45103</v>
       </c>
       <c r="G11" t="n">
-        <v>9169.889999999999</v>
+        <v>8015.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_40.xlsx
+++ b/data/input/employee_absence_data_40.xlsx
@@ -464,103 +464,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>64331</v>
+        <v>75247</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agatha Montenegro</t>
+          <t>Bruna Oliveira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45103</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>6158.58</v>
+        <v>7459.03</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>75313</v>
+        <v>45426</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liz Rios</t>
+          <t>Lívia Ramos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45081</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>4870.06</v>
+        <v>6269.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57518</v>
+        <v>89169</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eduarda Aparecida</t>
+          <t>Marcelo Albuquerque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="G4" t="n">
-        <v>8643.360000000001</v>
+        <v>2286.03</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>76551</v>
+        <v>88644</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Léo Barros</t>
+          <t>Sra. Esther Rocha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -569,27 +569,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45095</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>5341.8</v>
+        <v>6725.82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>87866</v>
+        <v>80896</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Otto Farias</t>
+          <t>Dr. Luiz Gustavo da Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,158 +598,158 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45103</v>
+        <v>45093</v>
       </c>
       <c r="G6" t="n">
-        <v>8712.200000000001</v>
+        <v>8259.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5248</v>
+        <v>63920</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aylla Fernandes</t>
+          <t>Dr. João Lucas Sampaio</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45085</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>2618.59</v>
+        <v>6609.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>38176</v>
+        <v>69195</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Cecília Abreu</t>
+          <t>Josué Costela</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45094</v>
+        <v>45091</v>
       </c>
       <c r="G8" t="n">
-        <v>9665.309999999999</v>
+        <v>4865.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>90512</v>
+        <v>4801</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maria Vitória Pires</t>
+          <t>Sr. Miguel Borges</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45082</v>
+        <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>5593.33</v>
+        <v>8124.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>34694</v>
+        <v>29482</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Murilo Souza</t>
+          <t>Raul Sampaio</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45090</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>6271.71</v>
+        <v>7234.59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>87907</v>
+        <v>96129</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luara Correia</t>
+          <t>Antônio Pinto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45103</v>
+        <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>8015.5</v>
+        <v>5908.58</v>
       </c>
     </row>
   </sheetData>
